--- a/biology/Histoire de la zoologie et de la botanique/Archives_of_Natural_History/Archives_of_Natural_History.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Archives_of_Natural_History/Archives_of_Natural_History.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Archives of Natural History est une revue à comité de lecture, publiée par la Society for the History of Natural History. Elle publie des articles sur l'histoire et la bibliographie de l'histoire naturelle dans son sens le plus large, et dans toutes les époques et toutes les cultures, notamment en botanique, géologie, paléontologie et zoologie. Elle documente la biographie de naturalistes, leurs publications, leur correspondance et leurs collections, et les institutions et les sociétés dont ils sont membres. Les documents bibliographiques concernés par l'étude des livres rares, de manuscrits et de matériel d'illustration, l'analyse, et à la suite de bibliographies sont également publiés.
